--- a/Reports_DataBase/1. Report_Helper/input_data.xlsx
+++ b/Reports_DataBase/1. Report_Helper/input_data.xlsx
@@ -352,7 +352,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
